--- a/sql/memo数据字典.xlsx
+++ b/sql/memo数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12540" tabRatio="749" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="13725" windowHeight="12540" tabRatio="749" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="57">
   <si>
     <t>表目录</t>
   </si>
@@ -75,70 +75,73 @@
     <t>id</t>
   </si>
   <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>自增主键</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>varchar(256)</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>口令</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+  </si>
+  <si>
+    <t>盐值</t>
+  </si>
+  <si>
+    <t>creator</t>
+  </si>
+  <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>主键</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>自增主键</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>更新时间</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>varchar(64)</t>
-  </si>
-  <si>
-    <t>用户名</t>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>varchar(256)</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>口令</t>
-  </si>
-  <si>
-    <t>salt</t>
-  </si>
-  <si>
-    <t>varchar(32)</t>
-  </si>
-  <si>
-    <t>盐值</t>
-  </si>
-  <si>
-    <t>creator</t>
   </si>
   <si>
     <t>创建者</t>
@@ -194,8 +197,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -286,7 +289,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,7 +311,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,14 +325,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,21 +341,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,6 +359,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -391,11 +393,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -409,21 +426,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,13 +441,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,19 +591,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,139 +621,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,17 +650,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,21 +672,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,19 +703,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,8 +712,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,10 +755,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,133 +767,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1735,7 +1738,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2072,7 +2075,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2149,38 +2152,38 @@
         <v>39</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" s="12"/>
     </row>
     <row r="6" ht="20.25" spans="1:5">
       <c r="A6" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="12"/>
     </row>
     <row r="7" ht="20.25" spans="1:5">
       <c r="A7" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="12"/>
@@ -2403,7 +2406,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2480,25 +2483,25 @@
         <v>39</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" s="12"/>
     </row>
     <row r="6" ht="20.25" spans="1:5">
       <c r="A6" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
@@ -2725,10 +2728,10 @@
   <sheetPr/>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2802,31 +2805,31 @@
     </row>
     <row r="5" ht="20.25" spans="1:5">
       <c r="A5" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" s="12"/>
     </row>
     <row r="6" ht="20.25" spans="1:5">
       <c r="A6" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" s="12"/>
     </row>
@@ -3052,10 +3055,10 @@
   <sheetPr/>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
